--- a/public/carrier_info.xlsx
+++ b/public/carrier_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaree\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA5F913-C206-4E5D-B7FD-6B1CE6F2E3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3393B696-0251-4355-8585-92F4CEDDED1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2124" yWindow="1944" windowWidth="17280" windowHeight="9960" xr2:uid="{77576B95-20BD-47AC-8C82-4F16093E2E26}"/>
   </bookViews>
@@ -126,19 +126,19 @@
     <t>delete,edit</t>
   </si>
   <si>
-    <t>service_provider_name</t>
-  </si>
-  <si>
-    <t>api_name</t>
-  </si>
-  <si>
-    <t>api_url</t>
-  </si>
-  <si>
-    <t>api_params</t>
-  </si>
-  <si>
-    <t>api_state</t>
+    <t>API_state</t>
+  </si>
+  <si>
+    <t>API_params</t>
+  </si>
+  <si>
+    <t>API_url</t>
+  </si>
+  <si>
+    <t>API_name</t>
+  </si>
+  <si>
+    <t>Service_provider_name</t>
   </si>
 </sst>
 </file>
@@ -547,9 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12C1E4D-D2AE-4FDB-B829-F1D2C129D673}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -562,19 +560,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">

--- a/public/carrier_info.xlsx
+++ b/public/carrier_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaree\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3393B696-0251-4355-8585-92F4CEDDED1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDC8F6E-BD86-49E8-8A42-C8DFD6BE551D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2124" yWindow="1944" windowWidth="17280" windowHeight="9960" xr2:uid="{77576B95-20BD-47AC-8C82-4F16093E2E26}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{77576B95-20BD-47AC-8C82-4F16093E2E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>AT&amp;T - POD19</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>Service_provider_name</t>
+  </si>
+  <si>
+    <t>Last modified by</t>
+  </si>
+  <si>
+    <t>Last modified date &amp; time</t>
   </si>
 </sst>
 </file>
@@ -545,9 +551,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12C1E4D-D2AE-4FDB-B829-F1D2C129D673}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -556,9 +564,11 @@
     <col min="3" max="3" width="67.5546875" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -574,8 +584,14 @@
       <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -592,7 +608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -609,7 +625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -626,7 +642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -643,7 +659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -660,7 +676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -677,7 +693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -694,7 +710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
     </row>
   </sheetData>

--- a/public/carrier_info.xlsx
+++ b/public/carrier_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaree\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDC8F6E-BD86-49E8-8A42-C8DFD6BE551D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B159E1C-BA83-451C-BEDE-7E6BC3CDDF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{77576B95-20BD-47AC-8C82-4F16093E2E26}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>AT&amp;T - POD19</t>
   </si>
@@ -145,6 +145,48 @@
   </si>
   <si>
     <t>Last modified date &amp; time</t>
+  </si>
+  <si>
+    <t>jareen</t>
+  </si>
+  <si>
+    <t>10/07/2024 10:32PM</t>
+  </si>
+  <si>
+    <t>anjani</t>
+  </si>
+  <si>
+    <t>15/03/2024 11:03PM</t>
+  </si>
+  <si>
+    <t>sindhuja</t>
+  </si>
+  <si>
+    <t>22/05/2024 9:32AM</t>
+  </si>
+  <si>
+    <t>manoj</t>
+  </si>
+  <si>
+    <t>17/05/2024 5:32PM</t>
+  </si>
+  <si>
+    <t>lohitha</t>
+  </si>
+  <si>
+    <t>27/06/2024 08:32AM</t>
+  </si>
+  <si>
+    <t>gopi</t>
+  </si>
+  <si>
+    <t>13/05/2024 07:15PM</t>
+  </si>
+  <si>
+    <t>phani</t>
+  </si>
+  <si>
+    <t>25/06/2024 09:45AM</t>
   </si>
 </sst>
 </file>
@@ -554,7 +596,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,8 +606,8 @@
     <col min="3" max="3" width="67.5546875" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -587,7 +629,7 @@
       <c r="F1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -607,6 +649,12 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -624,6 +672,12 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -641,6 +695,12 @@
       <c r="E4" t="s">
         <v>5</v>
       </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -658,6 +718,12 @@
       <c r="E5" t="s">
         <v>4</v>
       </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -675,6 +741,12 @@
       <c r="E6" t="s">
         <v>4</v>
       </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -692,6 +764,12 @@
       <c r="E7" t="s">
         <v>5</v>
       </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -708,6 +786,12 @@
       </c>
       <c r="E8" s="6" t="s">
         <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">

--- a/public/carrier_info.xlsx
+++ b/public/carrier_info.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaree\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B159E1C-BA83-451C-BEDE-7E6BC3CDDF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{77576B95-20BD-47AC-8C82-4F16093E2E26}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>AT&amp;T - POD19</t>
   </si>
@@ -187,13 +181,40 @@
   </si>
   <si>
     <t>25/06/2024 09:45AM</t>
+  </si>
+  <si>
+    <t>Last sync date &amp; time</t>
+  </si>
+  <si>
+    <t>Success Rate</t>
+  </si>
+  <si>
+    <t>90/100</t>
+  </si>
+  <si>
+    <t>70/100</t>
+  </si>
+  <si>
+    <t>20/100</t>
+  </si>
+  <si>
+    <t>50/100</t>
+  </si>
+  <si>
+    <t>30/100</t>
+  </si>
+  <si>
+    <t>43/100</t>
+  </si>
+  <si>
+    <t>33/100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,7 +360,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -391,7 +412,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -585,32 +606,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12C1E4D-D2AE-4FDB-B829-F1D2C129D673}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="67.5546875" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="3" max="3" width="67.5703125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="25.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.45">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -632,8 +655,14 @@
       <c r="G1" t="s">
         <v>36</v>
       </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -655,8 +684,14 @@
       <c r="G2" t="s">
         <v>38</v>
       </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -678,8 +713,14 @@
       <c r="G3" t="s">
         <v>40</v>
       </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -701,8 +742,14 @@
       <c r="G4" t="s">
         <v>42</v>
       </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="16.899999999999999">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -724,8 +771,14 @@
       <c r="G5" t="s">
         <v>44</v>
       </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -747,8 +800,14 @@
       <c r="G6" t="s">
         <v>46</v>
       </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.45">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -770,8 +829,14 @@
       <c r="G7" t="s">
         <v>48</v>
       </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.45">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -793,18 +858,24 @@
       <c r="G8" t="s">
         <v>50</v>
       </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.45">
       <c r="A9" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{83183055-C9CA-40EE-A261-FB78EB0216C0}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{9951C3FB-85B5-40A3-8A53-B6078D7F4AA9}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{DF361060-B174-4312-8377-DEA28CDA0B12}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{9F19B8A3-C62C-4215-9F30-FCE908B0FA2B}"/>
-    <hyperlink ref="C3" r:id="rId5" xr:uid="{660319C0-F4EF-437D-89AC-896426B8DBB8}"/>
-    <hyperlink ref="C4" r:id="rId6" xr:uid="{48F18568-48C9-4021-841E-E325E4995B6B}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C3" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/carrier_info.xlsx
+++ b/public/carrier_info.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaree\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5A8E21-020F-47CA-B6A6-D59D8F0D8987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{77576B95-20BD-47AC-8C82-4F16093E2E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>AT&amp;T - POD19</t>
   </si>
@@ -123,18 +129,6 @@
     <t>API_state</t>
   </si>
   <si>
-    <t>API_params</t>
-  </si>
-  <si>
-    <t>API_url</t>
-  </si>
-  <si>
-    <t>API_name</t>
-  </si>
-  <si>
-    <t>Service_provider_name</t>
-  </si>
-  <si>
     <t>Last modified by</t>
   </si>
   <si>
@@ -183,38 +177,23 @@
     <t>25/06/2024 09:45AM</t>
   </si>
   <si>
-    <t>Last sync date &amp; time</t>
-  </si>
-  <si>
-    <t>Success Rate</t>
-  </si>
-  <si>
-    <t>90/100</t>
-  </si>
-  <si>
-    <t>70/100</t>
-  </si>
-  <si>
-    <t>20/100</t>
-  </si>
-  <si>
-    <t>50/100</t>
-  </si>
-  <si>
-    <t>30/100</t>
-  </si>
-  <si>
-    <t>43/100</t>
-  </si>
-  <si>
-    <t>33/100</t>
+    <t>Service provider name</t>
+  </si>
+  <si>
+    <t>API name</t>
+  </si>
+  <si>
+    <t>API url</t>
+  </si>
+  <si>
+    <t>API params</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,7 +339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -412,7 +391,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -606,63 +585,55 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12C1E4D-D2AE-4FDB-B829-F1D2C129D673}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" customWidth="1"/>
-    <col min="3" max="3" width="67.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.77734375" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="67.5546875" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -679,19 +650,13 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -708,19 +673,13 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -737,19 +696,13 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.899999999999999">
+    <row r="5" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -766,19 +719,13 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -795,19 +742,13 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -824,19 +765,13 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -853,29 +788,23 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3"/>
-    <hyperlink ref="C7" r:id="rId4"/>
-    <hyperlink ref="C3" r:id="rId5"/>
-    <hyperlink ref="C4" r:id="rId6"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{83183055-C9CA-40EE-A261-FB78EB0216C0}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{9951C3FB-85B5-40A3-8A53-B6078D7F4AA9}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{DF361060-B174-4312-8377-DEA28CDA0B12}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{9F19B8A3-C62C-4215-9F30-FCE908B0FA2B}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{660319C0-F4EF-437D-89AC-896426B8DBB8}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{48F18568-48C9-4021-841E-E325E4995B6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
